--- a/02_config/scenario_pv_60_hp_60_ev_60_individual_winter_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_individual_winter_naive/agents.xlsx
@@ -28,10 +28,10 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
-  </si>
-  <si>
-    <t>general/aggregated_by</t>
   </si>
   <si>
     <t>general/parameters/area</t>
@@ -2759,7 +2759,7 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>367</v>
@@ -3108,7 +3108,7 @@
         <v>483</v>
       </c>
       <c r="IN2">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3181,11 +3181,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>4</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>367</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3681,11 +3681,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3694,7 +3694,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>367</v>
@@ -4030,7 +4030,7 @@
         <v>483</v>
       </c>
       <c r="IN4">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4103,7 +4103,7 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
@@ -4275,7 +4275,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>367</v>
@@ -4557,7 +4557,7 @@
         <v>483</v>
       </c>
       <c r="IN5">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4614,7 +4614,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>493</v>
@@ -4690,11 +4690,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>3</v>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4703,7 +4703,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>367</v>
@@ -5090,7 +5090,7 @@
         <v>483</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5163,11 +5163,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5176,7 +5176,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>367</v>
@@ -5512,7 +5512,7 @@
         <v>483</v>
       </c>
       <c r="IN7">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5585,7 +5585,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>367</v>
@@ -5934,7 +5934,7 @@
         <v>483</v>
       </c>
       <c r="IN8">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ8">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:290">
@@ -6007,11 +6007,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>4</v>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6020,7 +6020,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>367</v>
@@ -6461,7 +6461,7 @@
         <v>483</v>
       </c>
       <c r="IN9">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>494</v>
@@ -6561,11 +6561,11 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>4</v>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6574,7 +6574,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>367</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -6983,11 +6983,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>3</v>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -6996,7 +6996,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>367</v>
@@ -7332,7 +7332,7 @@
         <v>483</v>
       </c>
       <c r="IN11">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7405,11 +7405,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>4</v>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7418,7 +7418,7 @@
         <v>2.6</v>
       </c>
       <c r="K12">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -7577,7 +7577,7 @@
         <v>42</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>367</v>
@@ -7859,7 +7859,7 @@
         <v>483</v>
       </c>
       <c r="IN12">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM12" t="s">
         <v>495</v>
@@ -7986,11 +7986,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>4</v>
+      <c r="G13">
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -7999,7 +7999,7 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -8158,7 +8158,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>367</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8513,7 +8513,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -8685,7 +8685,7 @@
         <v>51</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>367</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -9013,11 +9013,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>4</v>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9026,7 +9026,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>367</v>
@@ -9362,7 +9362,7 @@
         <v>483</v>
       </c>
       <c r="IN15">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9435,7 +9435,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
       </c>
       <c r="H16">
@@ -9607,7 +9607,7 @@
         <v>45</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>367</v>
@@ -9889,7 +9889,7 @@
         <v>483</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9946,7 +9946,7 @@
         <v>45</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:281">
@@ -9968,11 +9968,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="G17">
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -9981,7 +9981,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10140,7 +10140,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>367</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:281">
@@ -10468,7 +10468,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4</v>
       </c>
       <c r="H18">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>367</v>
@@ -10817,7 +10817,7 @@
         <v>483</v>
       </c>
       <c r="IN18">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:281">
@@ -10890,7 +10890,7 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
       </c>
       <c r="H19">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>367</v>
@@ -11290,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:281">
@@ -11312,11 +11312,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>4</v>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11325,7 +11325,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11484,7 +11484,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>367</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:281">
@@ -11812,7 +11812,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
@@ -11984,7 +11984,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>367</v>
@@ -12239,7 +12239,7 @@
         <v>483</v>
       </c>
       <c r="IN21">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:281">
@@ -12312,7 +12312,7 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
@@ -12469,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>367</v>
@@ -12661,7 +12661,7 @@
         <v>483</v>
       </c>
       <c r="IN22">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:281">
@@ -12734,11 +12734,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>3</v>
+      <c r="G23">
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12906,7 +12906,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>367</v>
@@ -13245,7 +13245,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13260,7 +13260,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>496</v>
@@ -13300,11 +13300,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13313,7 +13313,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13472,7 +13472,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>367</v>
@@ -13727,7 +13727,7 @@
         <v>483</v>
       </c>
       <c r="IN24">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:281">
@@ -13800,7 +13800,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -13972,7 +13972,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>367</v>
@@ -14227,7 +14227,7 @@
         <v>483</v>
       </c>
       <c r="IN25">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:281">
@@ -14300,11 +14300,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>3</v>
+      <c r="G26">
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14313,7 +14313,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14472,7 +14472,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>367</v>
@@ -14754,7 +14754,7 @@
         <v>483</v>
       </c>
       <c r="IN26">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14811,7 +14811,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:281">
@@ -14833,7 +14833,7 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
@@ -15005,7 +15005,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>367</v>
@@ -15287,7 +15287,7 @@
         <v>483</v>
       </c>
       <c r="IN27">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15338,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15347,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:281">
@@ -15360,11 +15360,11 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>4</v>
+      <c r="G28">
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15373,7 +15373,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15532,7 +15532,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>367</v>
@@ -15871,7 +15871,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:281">
@@ -15893,11 +15893,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="G29">
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -15906,7 +15906,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -16065,7 +16065,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>367</v>
@@ -16293,7 +16293,7 @@
         <v>483</v>
       </c>
       <c r="IN29">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16350,7 +16350,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16359,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:281">
@@ -16372,7 +16372,7 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
@@ -16529,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>367</v>
@@ -16721,7 +16721,7 @@
         <v>483</v>
       </c>
       <c r="IN30">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:281">
@@ -16794,7 +16794,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
@@ -16951,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>367</v>
@@ -17143,7 +17143,7 @@
         <v>483</v>
       </c>
       <c r="IN31">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17203,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:281">
@@ -17216,7 +17216,7 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
       </c>
       <c r="H32">
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>367</v>
@@ -17616,7 +17616,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -17625,7 +17625,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17638,11 +17638,11 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
-        <v>4</v>
+      <c r="G33">
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -17651,7 +17651,7 @@
         <v>2.6</v>
       </c>
       <c r="K33">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -17795,7 +17795,7 @@
         <v>0</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>367</v>
@@ -17987,7 +17987,7 @@
         <v>483</v>
       </c>
       <c r="IN33">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18047,7 +18047,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18060,7 +18060,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
@@ -18232,7 +18232,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>367</v>
@@ -18514,7 +18514,7 @@
         <v>483</v>
       </c>
       <c r="IN34">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>497</v>
@@ -18641,11 +18641,11 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>4</v>
+      <c r="G35">
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -18654,7 +18654,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>367</v>
@@ -18990,7 +18990,7 @@
         <v>483</v>
       </c>
       <c r="IN35">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19041,7 +19041,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19063,11 +19063,11 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>3</v>
+      <c r="G36">
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19076,7 +19076,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19235,7 +19235,7 @@
         <v>45</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>367</v>
@@ -19517,7 +19517,7 @@
         <v>483</v>
       </c>
       <c r="IN36">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19590,11 +19590,11 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>4</v>
+      <c r="G37">
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19603,7 +19603,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>367</v>
@@ -19939,7 +19939,7 @@
         <v>483</v>
       </c>
       <c r="IN37">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -19999,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20012,11 +20012,11 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>3</v>
+      <c r="G38">
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20025,7 +20025,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20184,7 +20184,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>367</v>
@@ -20466,7 +20466,7 @@
         <v>483</v>
       </c>
       <c r="IN38">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20539,7 +20539,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
@@ -20711,7 +20711,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>367</v>
@@ -21050,7 +21050,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21059,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21072,7 +21072,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
@@ -21244,7 +21244,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>367</v>
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21586,7 +21586,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
